--- a/1_semester/Support_and_testing_of_software_modules/Lab1/БД/Requests.xlsx
+++ b/1_semester/Support_and_testing_of_software_modules/Lab1/БД/Requests.xlsx
@@ -27,9 +27,6 @@
     <t>problemDescryption</t>
   </si>
   <si>
-    <t>clientID</t>
-  </si>
-  <si>
     <t>startDate</t>
   </si>
   <si>
@@ -51,13 +48,16 @@
     <t>Гудит, но не замораживает</t>
   </si>
   <si>
-    <t>techModelID</t>
-  </si>
-  <si>
-    <t>requestStatusID</t>
-  </si>
-  <si>
-    <t>repairPartID</t>
+    <t>FK_techModelID</t>
+  </si>
+  <si>
+    <t>FK_requestStatusID</t>
+  </si>
+  <si>
+    <t>FK_repairPartID</t>
+  </si>
+  <si>
+    <t>FK_clientID</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -426,19 +426,19 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6">
@@ -446,25 +446,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.6">
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
@@ -522,7 +522,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
@@ -546,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -568,7 +568,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="4">
         <v>3</v>
@@ -614,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4">
         <v>3</v>
